--- a/document/爱建租赁资产_20210913_汇总.xlsx
+++ b/document/爱建租赁资产_20210913_汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjwayrhz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github+gitee\storeage\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7900D-DEF0-48D8-9BD1-2D8FA8596A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75714A8-2A21-4949-B09C-E1150A63FAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="3420" windowWidth="21600" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11955" yWindow="3495" windowWidth="21600" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="云主机" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>名称</t>
   </si>
@@ -151,15 +151,6 @@
   </si>
   <si>
     <t>10.223.1.5</t>
-  </si>
-  <si>
-    <t>50+500</t>
-  </si>
-  <si>
-    <t>50+1000</t>
-  </si>
-  <si>
-    <t>50+1460</t>
   </si>
 </sst>
 </file>
@@ -500,7 +491,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,15 +564,15 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F11" si="0">LEFT(E2,1)&amp;"核"</f>
+        <f>LEFT(E2,1)&amp;"核"</f>
         <v>8核</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G11" si="1">IF(LEN(E2)=5,LEFT(RIGHT(E2,2),1)&amp;"GB",LEFT(RIGHT(E2,3),2)&amp;"GB")</f>
+        <f>IF(LEN(E2)=5,LEFT(RIGHT(E2,2),1)&amp;"GB",LEFT(RIGHT(E2,3),2)&amp;"GB")</f>
         <v>16GB</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
+      <c r="H2" s="3">
+        <v>550</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -613,15 +604,15 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:F11" si="0">LEFT(E3,1)&amp;"核"</f>
         <v>8核</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G2:G11" si="1">IF(LEN(E3)=5,LEFT(RIGHT(E3,2),1)&amp;"GB",LEFT(RIGHT(E3,3),2)&amp;"GB")</f>
         <v>16GB</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
+      <c r="H3" s="3">
+        <v>1050</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
@@ -660,8 +651,8 @@
         <f t="shared" si="1"/>
         <v>16GB</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>43</v>
+      <c r="H4" s="3">
+        <v>1510</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
@@ -700,8 +691,8 @@
         <f t="shared" si="1"/>
         <v>16GB</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>43</v>
+      <c r="H5" s="3">
+        <v>1510</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -740,8 +731,8 @@
         <f t="shared" si="1"/>
         <v>16GB</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>43</v>
+      <c r="H6" s="3">
+        <v>1510</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
@@ -780,8 +771,8 @@
         <f t="shared" si="1"/>
         <v>16GB</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>41</v>
+      <c r="H7" s="3">
+        <v>550</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -820,8 +811,8 @@
         <f t="shared" si="1"/>
         <v>1GB</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
+      <c r="H8" s="3">
+        <v>550</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
@@ -860,8 +851,8 @@
         <f t="shared" si="1"/>
         <v>32GB</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>43</v>
+      <c r="H9" s="3">
+        <v>1510</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -900,8 +891,8 @@
         <f t="shared" si="1"/>
         <v>32GB</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>43</v>
+      <c r="H10" s="3">
+        <v>1510</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
